--- a/策划案/卡牌效果一览表.xlsx
+++ b/策划案/卡牌效果一览表.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="7215"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="卡牌效果一览表" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
+    <sheet name="基础数值管理" sheetId="2" r:id="rId2"/>
+    <sheet name="卡牌效果一览表_备份" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="201">
+  <si>
+    <t>流派</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+  </si>
+  <si>
+    <t>使用条件</t>
+  </si>
+  <si>
+    <t>卡牌消耗</t>
+  </si>
+  <si>
+    <t>卡牌效果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>高危流</t>
   </si>
@@ -38,283 +64,575 @@
     <t>事件牌</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>获得150信仰，增加10点危险值，杀死当前城市10%的市民</t>
   </si>
   <si>
     <t>阴暗小巷的呓语</t>
   </si>
   <si>
+    <t>危险小于11时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，转化100信徒，获得50信仰</t>
+  </si>
+  <si>
+    <t>癫狂诗篇</t>
+  </si>
+  <si>
+    <t>危险小于21时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，转化200信徒，获得100信仰</t>
+  </si>
+  <si>
+    <t>腐败的晚宴</t>
+  </si>
+  <si>
+    <t>仪式牌</t>
+  </si>
+  <si>
+    <t>危险小于31时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，转化300信徒，获得150信仰</t>
+  </si>
+  <si>
+    <t>圣地朝拜</t>
+  </si>
+  <si>
+    <t>危险小于41时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，每有一个被摧毁的城市，获得500信仰</t>
+  </si>
+  <si>
+    <t>万门归宗</t>
+  </si>
+  <si>
+    <t>危险小于51时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，当前城市每有1条航线，获得60信仰</t>
+  </si>
+  <si>
+    <t>宗教革命</t>
+  </si>
+  <si>
+    <t>危险大于60时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，当前城市每有10w非信徒，理智降低0.3%</t>
+  </si>
+  <si>
+    <t>狂教徒的断罪</t>
+  </si>
+  <si>
+    <t>危险大于70时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，当前城市每有1w信徒，理智降低0.4%</t>
+  </si>
+  <si>
+    <t>伏行混沌的演说</t>
+  </si>
+  <si>
+    <t>危险大于80时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，每个有教条的城市使理智降低0.5%</t>
+  </si>
+  <si>
+    <t>银匙门扉的开启</t>
+  </si>
+  <si>
+    <t>危险大于90时可使用</t>
+  </si>
+  <si>
+    <t>危险增加5，消耗全部信仰，信仰值每有1000，理智值降低0.5%</t>
+  </si>
+  <si>
+    <t>资源流</t>
+  </si>
+  <si>
+    <t>马太福音上卷</t>
+  </si>
+  <si>
+    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最多的那类</t>
+  </si>
+  <si>
+    <t>马太福音下卷</t>
+  </si>
+  <si>
+    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最少的那类</t>
+  </si>
+  <si>
+    <t>丰饶盛典</t>
+  </si>
+  <si>
+    <t>消耗100信仰</t>
+  </si>
+  <si>
+    <t>下次抽取卡牌时，可以多抽一张，上限为8</t>
+  </si>
+  <si>
+    <t>道罗斯的凝视</t>
+  </si>
+  <si>
+    <t>下次抽卡费用为1，危险值+3</t>
+  </si>
+  <si>
+    <t>库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>教条牌</t>
+  </si>
+  <si>
+    <t>消耗500信仰</t>
+  </si>
+  <si>
+    <t>手牌上限+1，每个城市最多放置一张，总共最多放置7张</t>
+  </si>
+  <si>
+    <t>秘境回响</t>
+  </si>
+  <si>
+    <t>消耗300信仰</t>
+  </si>
+  <si>
+    <t>获得上一张打出的卡牌的副本</t>
+  </si>
+  <si>
+    <t>母神的眷恋</t>
+  </si>
+  <si>
+    <t>杀死目标城市1000人，补满全部手牌，危险值+10</t>
+  </si>
+  <si>
+    <t>克塔帕的愤怒</t>
+  </si>
+  <si>
+    <t>摧毁目标城市，清空全部手牌</t>
+  </si>
+  <si>
+    <t>修格斯增殖</t>
+  </si>
+  <si>
+    <t>去掉一张该城市的教条牌，随机杀死该城市（1-200）个市民，危险值+2</t>
+  </si>
+  <si>
+    <t>珍珠的低语</t>
+  </si>
+  <si>
+    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市50名信徒</t>
+  </si>
+  <si>
+    <t>交通流</t>
+  </si>
+  <si>
+    <t>调整航向</t>
+  </si>
+  <si>
+    <t>花费300信仰</t>
+  </si>
+  <si>
+    <t>将一条航线的目的地从一个城市拖动到另一个可以设立航线的城市</t>
+  </si>
+  <si>
+    <t>红眼航线</t>
+  </si>
+  <si>
+    <t>花费200信仰</t>
+  </si>
+  <si>
+    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费20信仰，转化目的地50的信徒</t>
+  </si>
+  <si>
+    <t>航线的线路用蓝色虚线表示</t>
+  </si>
+  <si>
+    <t>商务航线</t>
+  </si>
+  <si>
+    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费100信仰，目的地每有1w市民获得1信仰</t>
+  </si>
+  <si>
+    <t>航线的线路用黄色虚线表示</t>
+  </si>
+  <si>
+    <t>旅游航线</t>
+  </si>
+  <si>
+    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
+  </si>
+  <si>
+    <t>航线的线路用绿色虚线表示</t>
+  </si>
+  <si>
+    <t>物流航线</t>
+  </si>
+  <si>
+    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
+  </si>
+  <si>
+    <t>航线的线路用灰色虚线表示</t>
+  </si>
+  <si>
+    <t>神圣航班</t>
+  </si>
+  <si>
+    <t>花费500信仰</t>
+  </si>
+  <si>
+    <t>使与当前城市建立了航线的所有城市，转换总人口2%的信徒</t>
+  </si>
+  <si>
+    <t>死亡航班</t>
+  </si>
+  <si>
+    <t>选择一个与当前城市建立了航线的城市，摧毁目的地一个机场，杀死1000个市民，增加20危险值</t>
+  </si>
+  <si>
+    <t>特价机票</t>
+  </si>
+  <si>
+    <t>花费100信仰，立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
+  </si>
+  <si>
+    <t>热门城市</t>
+  </si>
+  <si>
+    <t>每个与当前城市建立航线的城市，使该卡牌费用增加200信仰，使用后，与当前城市建立的所有航线，航班运行间隔缩短10%</t>
+  </si>
+  <si>
+    <t>取消航线</t>
+  </si>
+  <si>
+    <t>花费200信仰，消除一条航线，降低2的危险值</t>
+  </si>
+  <si>
+    <t>垃圾牌</t>
+  </si>
+  <si>
+    <t>集会管制</t>
+  </si>
+  <si>
+    <t>场地垃圾事件牌</t>
+  </si>
+  <si>
+    <t>危险值每有1，增加0.4%的发生概率，每30-45s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），每秒杀死1%信徒，每秒危险值降低0.2，持续10秒</t>
+  </si>
+  <si>
+    <t>秘密行刑官</t>
+  </si>
+  <si>
+    <t>场地垃圾教条牌</t>
+  </si>
+  <si>
+    <t>危险值每有1，增加0.6%的发生概率，每40-55s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，该城市信徒无法转化</t>
+  </si>
+  <si>
+    <t>真理的清算</t>
+  </si>
+  <si>
+    <t>危险值达到100时必然触发，自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），所有城市杀死10%信徒，清空全球所有航线，信仰值减少20%，之后危险值降低50</t>
+  </si>
+  <si>
+    <t>耶兰多的低语</t>
+  </si>
+  <si>
+    <t>玩家每打出10张卡牌增加1%的发生几率，每消耗100信仰判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，危险值每增加1，理智值回复0.2</t>
+  </si>
+  <si>
+    <t>黄金河流的神刀</t>
+  </si>
+  <si>
+    <t>手牌垃圾事件牌</t>
+  </si>
+  <si>
+    <t>玩家每打出1张卡牌增加0.3%的发生几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀。持有该卡牌时抽卡强制只有2张，无视所有教条效果；该牌只能打出在有库苏恩的拥抱教条的城市，之后去掉库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>飞水螅的栖息地</t>
+  </si>
+  <si>
+    <t>手牌垃圾教条牌</t>
+  </si>
+  <si>
+    <t>玩家每抽1次卡增加2%的发生几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件。持有该卡牌时每1s信仰值减少5，该牌只能打出在沙漠城市，打出后清空该城市的教条牌且无法再放置其他教条牌</t>
+  </si>
+  <si>
+    <t>航空管制</t>
+  </si>
+  <si>
+    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次，判定成功直接生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场），放置有该卡牌的城市所有航线清空且不可设立新航线</t>
+  </si>
+  <si>
+    <t>警戒航线</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机落地减少目的地5%的信徒</t>
+  </si>
+  <si>
+    <t>航线的线路用红色虚线表示</t>
+  </si>
+  <si>
+    <t>强化审查</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每30-45s判定一次，判定成功下次抽卡时所有卡替换成强化审查，使用后所有航线运行间隔增加8%</t>
+  </si>
+  <si>
+    <t>遗物牌</t>
+  </si>
+  <si>
+    <t>食梦貘的贡品</t>
+  </si>
+  <si>
+    <t>每次抽牌有5%的几率抽到，每个被摧毁的城市增加10%的几率，手牌中持有该牌时每5s增加1的危险值,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>食梦貘的躯干</t>
+  </si>
+  <si>
+    <t>每次抽牌有1%的几率抽到，每次抽牌增加0.5%的几率，手牌中持有该牌时抽卡费用减半,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>食梦貘的头</t>
+  </si>
+  <si>
+    <t>每次抽牌有4%的几率抽到，拥有的每条航线增加1.2%的几率，手牌中持有该牌时所有航班起飞间隔缩短15%,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>探索牌</t>
+  </si>
+  <si>
+    <t>x布道场</t>
+  </si>
+  <si>
+    <t>初始探索消耗50信仰，之后每次探索危险值增加已探索次数*4，信仰值增加已探索次数*100</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>初始手牌数量</t>
+  </si>
+  <si>
+    <t>黄金河流的神刀生效时手牌数量强制变为2</t>
+  </si>
+  <si>
+    <t>手牌上限</t>
+  </si>
+  <si>
+    <t>初始抽卡费用</t>
+  </si>
+  <si>
+    <t>道罗斯的凝视生效时费用为1</t>
+  </si>
+  <si>
+    <t>每次抽卡增幅</t>
+  </si>
+  <si>
+    <t>抽卡费用上限</t>
+  </si>
+  <si>
+    <t>食梦貘的躯干生效时费用减半时向下取整</t>
+  </si>
+  <si>
+    <t>初始信仰值</t>
+  </si>
+  <si>
+    <t>城市生产1信仰值信徒数量</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2000人相当于每次生产10信仰</t>
+  </si>
+  <si>
+    <t>城市生产信仰值间隔</t>
+  </si>
+  <si>
+    <t>5-7s</t>
+  </si>
+  <si>
+    <t>圣城生产信仰值</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>生产周期</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>危险值上限</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>城市格子数量</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>每个教条卡占用1个格子
+珍珠的低语生效时格子数量+1</t>
+  </si>
+  <si>
+    <t>全球总人口</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>城市数量</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>内陆城市市民人口</t>
+  </si>
+  <si>
+    <t>内陆城市数量</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>临海城市市民人口</t>
+  </si>
+  <si>
+    <t>临海城市数量</t>
+  </si>
+  <si>
+    <t>岛屿城市市民人口</t>
+  </si>
+  <si>
+    <t>岛屿城市数量</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>荒漠城市市民人口</t>
+  </si>
+  <si>
+    <t>荒漠城市数量</t>
+  </si>
+  <si>
+    <t>雪山城市市民人口</t>
+  </si>
+  <si>
+    <t>雪山城市数量</t>
+  </si>
+  <si>
+    <t>草原城市市民人口</t>
+  </si>
+  <si>
+    <t>草原城市数量</t>
+  </si>
+  <si>
+    <t>显示在屏幕左侧数据栏的内容</t>
+  </si>
+  <si>
+    <t>已探索城市数量</t>
+  </si>
+  <si>
+    <t>信徒总数</t>
+  </si>
+  <si>
+    <t>已抽取卡牌次数</t>
+  </si>
+  <si>
+    <t>已使用卡牌次数</t>
+  </si>
+  <si>
+    <t>危险值</t>
+  </si>
+  <si>
+    <t>理智值</t>
+  </si>
+  <si>
+    <t>信仰值</t>
+  </si>
+  <si>
     <t>危险小于11时可使用，危险增加5，转化100信徒，获得50信仰</t>
   </si>
   <si>
-    <t>癫狂诗篇</t>
-  </si>
-  <si>
     <t>危险小于21时可使用，危险增加5，转化200信徒，获得100信仰</t>
   </si>
   <si>
-    <t>腐败的晚宴</t>
-  </si>
-  <si>
-    <t>仪式牌</t>
-  </si>
-  <si>
     <t>危险小于31时可使用，危险增加5，转化300信徒，获得150信仰</t>
   </si>
   <si>
-    <t>圣地朝拜</t>
-  </si>
-  <si>
     <t>危险小于41时可使用，危险增加5，每有一个被摧毁的城市，获得500信仰</t>
   </si>
   <si>
-    <t>万门归宗</t>
-  </si>
-  <si>
     <t>危险小于51时可使用，危险增加5，当前城市每有1条航线，获得60信仰</t>
   </si>
   <si>
-    <t>宗教革命</t>
-  </si>
-  <si>
     <t>危险大于60时可使用，危险增加5，当前城市每有10w非信徒，理智降低0.3%</t>
   </si>
   <si>
-    <t>狂教徒的断罪</t>
-  </si>
-  <si>
     <t>危险大于70时可使用，危险增加5，当前城市每有1w信徒，理智降低0.4%</t>
   </si>
   <si>
-    <t>伏行混沌的演说</t>
-  </si>
-  <si>
     <t>危险大于80时可使用，危险增加5，每个有教条的城市使理智降低0.5%</t>
   </si>
   <si>
-    <t>银匙门扉的开启</t>
-  </si>
-  <si>
     <t>危险大于90时可使用，危险增加5，消耗全部信仰，信仰值每有1000，理智值降低0.5%</t>
   </si>
   <si>
-    <t>资源流</t>
-  </si>
-  <si>
-    <t>马太福音上卷</t>
-  </si>
-  <si>
-    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最多的那类</t>
-  </si>
-  <si>
-    <t>马太福音下卷</t>
-  </si>
-  <si>
-    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最少的那类</t>
-  </si>
-  <si>
-    <t>丰饶盛典</t>
-  </si>
-  <si>
     <t>消耗100信仰，下次抽取卡牌时，可以多抽一张，上限为8</t>
   </si>
   <si>
-    <t>道罗斯的凝视</t>
-  </si>
-  <si>
-    <t>下次抽卡费用为1，危险值+3</t>
-  </si>
-  <si>
-    <t>库苏恩的拥抱</t>
-  </si>
-  <si>
-    <t>教条牌</t>
-  </si>
-  <si>
     <t>消耗500信仰，手牌上限+1，每个城市最多放置一张，总共最多放置7张</t>
   </si>
   <si>
-    <t>秘境回响</t>
-  </si>
-  <si>
     <t>消耗300信仰，获得上一张打出的卡牌的副本</t>
   </si>
   <si>
-    <t>母神的眷恋</t>
-  </si>
-  <si>
-    <t>杀死目标城市1000人，补满全部手牌，危险值+10</t>
-  </si>
-  <si>
-    <t>克塔帕的愤怒</t>
-  </si>
-  <si>
-    <t>摧毁目标城市，清空全部手牌</t>
-  </si>
-  <si>
-    <t>修格斯增殖</t>
-  </si>
-  <si>
-    <t>去掉一张该城市的教条牌，随机杀死该城市（1-200）个市民，危险值+2</t>
-  </si>
-  <si>
-    <t>珍珠的低语</t>
-  </si>
-  <si>
-    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市50名信徒</t>
-  </si>
-  <si>
-    <t>交通流</t>
-  </si>
-  <si>
     <t>建设机场</t>
   </si>
   <si>
     <t>花费500信仰，在当前城市建设机场，每个机场允许设立3个航线，如果一个城市建设了4个机场，最多可以同时设立12条航线</t>
   </si>
   <si>
-    <t>红眼航线</t>
+    <t>ggj版本去掉了建设机场</t>
   </si>
   <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费20信仰，转化目的地50的信徒</t>
   </si>
   <si>
-    <t>商务航线</t>
-  </si>
-  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费100信仰，目的地每有1w市民获得1信仰</t>
   </si>
   <si>
-    <t>旅游航线</t>
-  </si>
-  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
   </si>
   <si>
-    <t>物流航线</t>
-  </si>
-  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
   </si>
   <si>
-    <t>神圣航班</t>
-  </si>
-  <si>
     <t>花费500信仰，使与当前城市建立了航线的所有城市，转换总人口2%的信徒</t>
   </si>
   <si>
-    <t>死亡航班</t>
-  </si>
-  <si>
-    <t>选择一个与当前城市建立了航线的城市，摧毁目的地一个机场，杀死1000个市民，增加20危险值</t>
-  </si>
-  <si>
-    <t>特价机票</t>
-  </si>
-  <si>
-    <t>花费100信仰，立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
-  </si>
-  <si>
-    <t>热门城市</t>
-  </si>
-  <si>
     <t>每个与当前城市建立航线的城市，使该卡牌费用增加200信仰，使用后，与当前城市建立了航线的所有城市，航线运行间隔缩短10%</t>
   </si>
   <si>
-    <t>取消航线</t>
-  </si>
-  <si>
     <t>花费200信仰，消除一条航线，降低1的危险值</t>
-  </si>
-  <si>
-    <t>垃圾牌</t>
-  </si>
-  <si>
-    <t>集会管制</t>
-  </si>
-  <si>
-    <t>场地垃圾事件牌</t>
-  </si>
-  <si>
-    <t>危险值每有1，增加0.4%的发生概率，每30-45s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），每秒杀死1%信徒，每秒危险值降低0.2，持续10秒</t>
-  </si>
-  <si>
-    <t>秘密行刑官</t>
-  </si>
-  <si>
-    <t>场地垃圾教条牌</t>
-  </si>
-  <si>
-    <t>危险值每有1，增加0.6%的发生概率，每40-55s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，该城市信徒无法转化</t>
-  </si>
-  <si>
-    <t>真理的清算</t>
-  </si>
-  <si>
-    <t>危险值达到100时必然触发，自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），所有城市杀死10%信徒，清空全球所有航线，信仰值减少20%，之后危险值降低50</t>
-  </si>
-  <si>
-    <t>耶兰多的低语</t>
-  </si>
-  <si>
-    <t>玩家每打出10张卡牌增加1%的发生几率，每消耗100信仰判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，危险值每增加1，理智值回复0.2</t>
-  </si>
-  <si>
-    <t>黄金河流的神刀</t>
-  </si>
-  <si>
-    <t>手牌垃圾事件牌</t>
-  </si>
-  <si>
-    <t>玩家每打出1张卡牌增加0.3%的发生几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀。持有该卡牌时抽卡强制只有2张，无视所有教条效果；该牌只能打出在有库苏恩的拥抱教条的城市，之后去掉库苏恩的拥抱</t>
-  </si>
-  <si>
-    <t>飞水螅的栖息地</t>
-  </si>
-  <si>
-    <t>手牌垃圾教条牌</t>
-  </si>
-  <si>
-    <t>玩家每抽1次卡增加2%的发生几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件。持有该卡牌时每1s信仰值减少5，该牌只能打出在沙漠城市，打出后清空该城市的教条牌且无法再放置其他教条牌</t>
-  </si>
-  <si>
-    <t>航空管制</t>
-  </si>
-  <si>
-    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次，判定成功直接生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场），放置有该卡牌的城市所有航线清空且不可设立新航线</t>
-  </si>
-  <si>
-    <t>警戒航线</t>
-  </si>
-  <si>
-    <t>全图航线总数每有1条，增加3%的发生概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机落地减少目的地5%的信徒</t>
-  </si>
-  <si>
-    <t>强化审查</t>
-  </si>
-  <si>
-    <t>全图航线总数每有1条，增加3%的发生概率，每30-45s判定一次，判定成功下次抽卡时所有卡替换成强化审查，使用后所有航线运行间隔增加8%</t>
-  </si>
-  <si>
-    <t>遗物牌</t>
-  </si>
-  <si>
-    <t>食梦貘的贡品</t>
-  </si>
-  <si>
-    <t>每次抽牌有0.8%的几率抽到，每个被摧毁的城市增加0.2%的几率，手牌中持有该牌时每5s增加1的危险值</t>
-  </si>
-  <si>
-    <t>食梦貘的躯干</t>
-  </si>
-  <si>
-    <t>每次抽牌有0.8%的几率抽到，每条航线增加0.02%的几率，手牌中持有该牌时抽卡费用减半</t>
-  </si>
-  <si>
-    <t>食梦貘的头</t>
-  </si>
-  <si>
-    <t>每次抽牌有0.8%的几率抽到，每条航线增加0.02%的几率，手牌中持有该牌时所有航班起飞间隔缩短15%</t>
   </si>
 </sst>
 </file>
@@ -480,12 +798,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -821,7 +1145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,16 +1169,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -863,102 +1187,129 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,657 +1845,2030 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" ht="27" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" ht="27" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" ht="27" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" ht="27" spans="1:8">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" ht="40.5" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" ht="40.5" spans="1:8">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" ht="40.5" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" ht="40.5" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" ht="40.5" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" ht="40.5" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" ht="40.5" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" ht="40.5" spans="1:8">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:8">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" ht="27" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" ht="27" spans="1:8">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" ht="27" spans="1:8">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" ht="27" spans="1:8">
+      <c r="A44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A41:A43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.625" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="7">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="11">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="11">
+        <v>31250</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="11">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3">
         <v>35</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3">
         <v>41</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" ht="27" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="5">
         <v>43</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="2">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" ht="40.5" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2">
-        <v>38</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="2">
-        <v>40</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2">
-        <v>41</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2">
-        <v>42</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>95</v>
+      <c r="C43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/卡牌效果一览表.xlsx
+++ b/策划案/卡牌效果一览表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="234">
   <si>
     <t>流派</t>
   </si>
@@ -67,7 +67,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>获得150信仰，增加10点危险值，杀死当前城市10%的市民</t>
+    <t>+150信仰，减少10%市民，+10危险</t>
   </si>
   <si>
     <t>阴暗小巷的呓语</t>
@@ -76,7 +76,7 @@
     <t>危险小于11时可使用</t>
   </si>
   <si>
-    <t>危险增加5，转化100信徒，获得50信仰</t>
+    <t>转化100信徒，+50信仰,+5危险</t>
   </si>
   <si>
     <t>癫狂诗篇</t>
@@ -85,7 +85,7 @@
     <t>危险小于21时可使用</t>
   </si>
   <si>
-    <t>危险增加5，转化200信徒，获得100信仰</t>
+    <t>转化200信徒，+100信仰,+5危险</t>
   </si>
   <si>
     <t>腐败的晚宴</t>
@@ -97,7 +97,7 @@
     <t>危险小于31时可使用</t>
   </si>
   <si>
-    <t>危险增加5，转化300信徒，获得150信仰</t>
+    <t>转化300信徒，+150信仰,+5危险</t>
   </si>
   <si>
     <t>圣地朝拜</t>
@@ -106,7 +106,7 @@
     <t>危险小于41时可使用</t>
   </si>
   <si>
-    <t>危险增加5，每有一个被摧毁的城市，获得500信仰</t>
+    <t>每个被摧毁的城市+500信仰,+5危险</t>
   </si>
   <si>
     <t>万门归宗</t>
@@ -115,7 +115,7 @@
     <t>危险小于51时可使用</t>
   </si>
   <si>
-    <t>危险增加5，当前城市每有1条航线，获得60信仰</t>
+    <t>下个抵达的飞机效果翻倍，+60信仰,+5危险</t>
   </si>
   <si>
     <t>宗教革命</t>
@@ -124,7 +124,7 @@
     <t>危险大于60时可使用</t>
   </si>
   <si>
-    <t>危险增加5，当前城市每有10w非信徒，理智降低0.3%</t>
+    <t>该城市每有10w非信徒，-0.3%理智,+5危险</t>
   </si>
   <si>
     <t>狂教徒的断罪</t>
@@ -133,7 +133,7 @@
     <t>危险大于70时可使用</t>
   </si>
   <si>
-    <t>危险增加5，当前城市每有1w信徒，理智降低0.4%</t>
+    <t>该城市每有1w信徒，-0.4%理智,+5危险</t>
   </si>
   <si>
     <t>伏行混沌的演说</t>
@@ -142,7 +142,7 @@
     <t>危险大于80时可使用</t>
   </si>
   <si>
-    <t>危险增加5，每个有教条的城市使理智降低0.5%</t>
+    <t>每个有教条的城市-0.5%理智,+5危险</t>
   </si>
   <si>
     <t>银匙门扉的开启</t>
@@ -151,7 +151,7 @@
     <t>危险大于90时可使用</t>
   </si>
   <si>
-    <t>危险增加5，消耗全部信仰，信仰值每有1000，理智值降低0.5%</t>
+    <t>消耗全部信仰，每1k信仰，-0.5%理智,+5危险</t>
   </si>
   <si>
     <t>资源流</t>
@@ -160,28 +160,28 @@
     <t>马太福音上卷</t>
   </si>
   <si>
-    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最多的那类</t>
+    <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最多的相同</t>
   </si>
   <si>
     <t>马太福音下卷</t>
   </si>
   <si>
-    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最少的那类</t>
+    <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最少的相同</t>
   </si>
   <si>
     <t>丰饶盛典</t>
   </si>
   <si>
-    <t>消耗100信仰</t>
-  </si>
-  <si>
-    <t>下次抽取卡牌时，可以多抽一张，上限为8</t>
+    <t>-100信仰</t>
+  </si>
+  <si>
+    <t>下次抽卡可以多抽一张，上限为8</t>
   </si>
   <si>
     <t>道罗斯的凝视</t>
   </si>
   <si>
-    <t>下次抽卡费用为1，危险值+3</t>
+    <t>下次抽卡费用为1，+3危险</t>
   </si>
   <si>
     <t>库苏恩的拥抱</t>
@@ -190,25 +190,28 @@
     <t>教条牌</t>
   </si>
   <si>
-    <t>消耗500信仰</t>
-  </si>
-  <si>
-    <t>手牌上限+1，每个城市最多放置一张，总共最多放置7张</t>
+    <t>-500信仰</t>
+  </si>
+  <si>
+    <t>手牌上限+1</t>
+  </si>
+  <si>
+    <t>每个城市最多放置一张，总共最多放置7张</t>
   </si>
   <si>
     <t>秘境回响</t>
   </si>
   <si>
-    <t>消耗300信仰</t>
-  </si>
-  <si>
-    <t>获得上一张打出的卡牌的副本</t>
+    <t>-300信仰</t>
+  </si>
+  <si>
+    <t>获得上一张打出卡牌的副本</t>
   </si>
   <si>
     <t>母神的眷恋</t>
   </si>
   <si>
-    <t>杀死目标城市1000人，补满全部手牌，危险值+10</t>
+    <t>减少1k市民，补满全部手牌，+10危险</t>
   </si>
   <si>
     <t>克塔帕的愤怒</t>
@@ -220,109 +223,79 @@
     <t>修格斯增殖</t>
   </si>
   <si>
-    <t>去掉一张该城市的教条牌，随机杀死该城市（1-200）个市民，危险值+2</t>
+    <t>去掉一张该城市的教条牌，随机减少1-200市民，+2危险</t>
   </si>
   <si>
     <t>珍珠的低语</t>
   </si>
   <si>
-    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市50名信徒</t>
+    <t>每消耗1点信仰，转化该城市50名信徒</t>
+  </si>
+  <si>
+    <t>每个城市最多一张</t>
   </si>
   <si>
     <t>交通流</t>
   </si>
   <si>
-    <t>调整航向</t>
-  </si>
-  <si>
-    <t>花费300信仰</t>
-  </si>
-  <si>
-    <t>将一条航线的目的地从一个城市拖动到另一个可以设立航线的城市</t>
-  </si>
-  <si>
-    <t>红眼航线</t>
-  </si>
-  <si>
-    <t>花费200信仰</t>
-  </si>
-  <si>
-    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费20信仰，转化目的地50的信徒</t>
-  </si>
-  <si>
-    <t>航线的线路用蓝色虚线表示</t>
-  </si>
-  <si>
-    <t>商务航线</t>
-  </si>
-  <si>
-    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费100信仰，目的地每有1w市民获得1信仰</t>
-  </si>
-  <si>
-    <t>航线的线路用黄色虚线表示</t>
-  </si>
-  <si>
-    <t>旅游航线</t>
-  </si>
-  <si>
-    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
-  </si>
-  <si>
-    <t>航线的线路用绿色虚线表示</t>
-  </si>
-  <si>
-    <t>物流航线</t>
-  </si>
-  <si>
-    <t>在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
-  </si>
-  <si>
-    <t>航线的线路用灰色虚线表示</t>
-  </si>
-  <si>
-    <t>神圣航班</t>
-  </si>
-  <si>
-    <t>花费500信仰</t>
-  </si>
-  <si>
-    <t>使与当前城市建立了航线的所有城市，转换总人口2%的信徒</t>
-  </si>
-  <si>
-    <t>死亡航班</t>
-  </si>
-  <si>
-    <t>选择一个与当前城市建立了航线的城市，摧毁目的地一个机场，杀死1000个市民，增加20危险值</t>
-  </si>
-  <si>
-    <t>特价机票</t>
-  </si>
-  <si>
-    <t>花费100信仰，立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
-  </si>
-  <si>
-    <t>热门城市</t>
-  </si>
-  <si>
-    <t>每个与当前城市建立航线的城市，使该卡牌费用增加200信仰，使用后，与当前城市建立的所有航线，航班运行间隔缩短10%</t>
-  </si>
-  <si>
-    <t>取消航线</t>
-  </si>
-  <si>
-    <t>花费200信仰，消除一条航线，降低2的危险值</t>
+    <t>女帝的武装舰</t>
+  </si>
+  <si>
+    <t>-200信仰</t>
+  </si>
+  <si>
+    <t>转移始发地5%非信徒，减少目的地10%信徒，-5危险</t>
+  </si>
+  <si>
+    <t>教皇的巡回艇</t>
+  </si>
+  <si>
+    <t>转移始发地10%信徒，转化目的地10%信徒</t>
+  </si>
+  <si>
+    <t>米格的太空船</t>
+  </si>
+  <si>
+    <t>减少始发地10%市民，减少目的地10%市民，+15危险，+1理智</t>
+  </si>
+  <si>
+    <t>紧急征召</t>
+  </si>
+  <si>
+    <t>所有其他城市向始发地转移5%非信徒</t>
+  </si>
+  <si>
+    <t>圣洁传导</t>
+  </si>
+  <si>
+    <t>从始发地向所有其他城市转移5%信徒</t>
+  </si>
+  <si>
+    <t>难民潮</t>
+  </si>
+  <si>
+    <t>-400信仰</t>
+  </si>
+  <si>
+    <t>所有城市随机向另一个城市转移1%-20%的市民，-1理智</t>
   </si>
   <si>
     <t>垃圾牌</t>
   </si>
   <si>
-    <t>集会管制</t>
+    <t>警卫队的围剿</t>
   </si>
   <si>
     <t>场地垃圾事件牌</t>
   </si>
   <si>
-    <t>危险值每有1，增加0.4%的发生概率，每30-45s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），每秒杀死1%信徒，每秒危险值降低0.2，持续10秒</t>
+    <t>危险值大于20时，每30-45s触发一次</t>
+  </si>
+  <si>
+    <t>减少10%信徒，-2危险</t>
+  </si>
+  <si>
+    <t>自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌）</t>
   </si>
   <si>
     <t>秘密行刑官</t>
@@ -331,19 +304,28 @@
     <t>场地垃圾教条牌</t>
   </si>
   <si>
-    <t>危险值每有1，增加0.6%的发生概率，每40-55s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，该城市信徒无法转化</t>
+    <t>危险值大于50时，每40-55s触发一次</t>
+  </si>
+  <si>
+    <t>在该教条存在时，该城市信徒无法转化</t>
   </si>
   <si>
     <t>真理的清算</t>
   </si>
   <si>
-    <t>危险值达到100时必然触发，自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），所有城市杀死10%信徒，清空全球所有航线，信仰值减少20%，之后危险值降低50</t>
+    <t>危险值达到100时触发</t>
+  </si>
+  <si>
+    <t>所有城市减少10%信徒，信仰值减少20%，危险值降低50</t>
   </si>
   <si>
     <t>耶兰多的低语</t>
   </si>
   <si>
-    <t>玩家每打出10张卡牌增加1%的发生几率，每消耗100信仰判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，危险值每增加1，理智值回复0.2</t>
+    <t>每打出10张卡牌增加1%的几率，每消耗100信仰判定一次</t>
+  </si>
+  <si>
+    <t>该教条存在时，每+1危险，+0.2理智</t>
   </si>
   <si>
     <t>黄金河流的神刀</t>
@@ -352,7 +334,11 @@
     <t>手牌垃圾事件牌</t>
   </si>
   <si>
-    <t>玩家每打出1张卡牌增加0.3%的发生几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀。持有该卡牌时抽卡强制只有2张，无视所有教条效果；该牌只能打出在有库苏恩的拥抱教条的城市，之后去掉库苏恩的拥抱</t>
+    <t>每打出1张卡牌增加0.3%的几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀</t>
+  </si>
+  <si>
+    <t>于手牌时，每次抽卡只有2张；
+使用该牌清除一张库苏恩的拥抱</t>
   </si>
   <si>
     <t>飞水螅的栖息地</t>
@@ -361,28 +347,32 @@
     <t>手牌垃圾教条牌</t>
   </si>
   <si>
-    <t>玩家每抽1次卡增加2%的发生几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件。持有该卡牌时每1s信仰值减少5，该牌只能打出在沙漠城市，打出后清空该城市的教条牌且无法再放置其他教条牌</t>
+    <t>每次抽卡增加2%的几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件</t>
+  </si>
+  <si>
+    <t>于手牌时，每秒-5信仰；
+在沙漠使用该牌清空其他教条牌且无法再放置新的教条牌</t>
   </si>
   <si>
     <t>航空管制</t>
   </si>
   <si>
-    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次，判定成功直接生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场），放置有该卡牌的城市所有航线清空且不可设立新航线</t>
+    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次</t>
+  </si>
+  <si>
+    <t>该教条存在时，该城市无法成为始发地或目的地</t>
+  </si>
+  <si>
+    <t>判定成功生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场）</t>
   </si>
   <si>
     <t>警戒航线</t>
   </si>
   <si>
-    <t>全图航线总数每有1条，增加3%的发生概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机落地减少目的地5%的信徒</t>
-  </si>
-  <si>
-    <t>航线的线路用红色虚线表示</t>
-  </si>
-  <si>
-    <t>强化审查</t>
-  </si>
-  <si>
-    <t>全图航线总数每有1条，增加3%的发生概率，每30-45s判定一次，判定成功下次抽卡时所有卡替换成强化审查，使用后所有航线运行间隔增加8%</t>
+    <t>每使用一张交通流卡牌，增加3%的概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线</t>
+  </si>
+  <si>
+    <t>所有其他城市减少5%信徒，-2危险</t>
   </si>
   <si>
     <t>遗物牌</t>
@@ -391,19 +381,31 @@
     <t>食梦貘的贡品</t>
   </si>
   <si>
-    <t>每次抽牌有5%的几率抽到，每个被摧毁的城市增加10%的几率，手牌中持有该牌时每5s增加1的危险值,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+    <t>每次抽牌有5%的几率抽到，每个被摧毁的城市增加10%的几率</t>
+  </si>
+  <si>
+    <t>持有该牌时每5s+1危险,</t>
+  </si>
+  <si>
+    <t>遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
   </si>
   <si>
     <t>食梦貘的躯干</t>
   </si>
   <si>
-    <t>每次抽牌有1%的几率抽到，每次抽牌增加0.5%的几率，手牌中持有该牌时抽卡费用减半,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+    <t>每次抽牌有1%的几率抽到，每次抽牌增加0.5%的几率</t>
+  </si>
+  <si>
+    <t>持有该牌时抽卡费用减半</t>
   </si>
   <si>
     <t>食梦貘的头</t>
   </si>
   <si>
-    <t>每次抽牌有4%的几率抽到，拥有的每条航线增加1.2%的几率，手牌中持有该牌时所有航班起飞间隔缩短15%,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+    <t>每次抽牌有4%的几率抽到，使用一张交通流卡牌增加1.2%的几率</t>
+  </si>
+  <si>
+    <t>持有该牌时，交通卡的百分比效果翻倍</t>
   </si>
   <si>
     <t>探索牌</t>
@@ -412,7 +414,7 @@
     <t>x布道场</t>
   </si>
   <si>
-    <t>初始探索消耗50信仰，之后每次探索危险值增加已探索次数*4，信仰值增加已探索次数*100</t>
+    <t>+(探索次数*4)危险，+(探索次数*100)信仰</t>
   </si>
   <si>
     <t>变量名</t>
@@ -569,6 +571,9 @@
     <t>信仰值</t>
   </si>
   <si>
+    <t>获得150信仰，增加10点危险值，杀死当前城市10%的市民</t>
+  </si>
+  <si>
     <t>危险小于11时可使用，危险增加5，转化100信徒，获得50信仰</t>
   </si>
   <si>
@@ -596,15 +601,33 @@
     <t>危险大于90时可使用，危险增加5，消耗全部信仰，信仰值每有1000，理智值降低0.5%</t>
   </si>
   <si>
+    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最多的那类</t>
+  </si>
+  <si>
+    <t>杀死目标城市50个信徒，立刻抽取一次卡牌，且所有卡牌都为手牌中剩余流派最少的那类</t>
+  </si>
+  <si>
     <t>消耗100信仰，下次抽取卡牌时，可以多抽一张，上限为8</t>
   </si>
   <si>
+    <t>下次抽卡费用为1，危险值+3</t>
+  </si>
+  <si>
     <t>消耗500信仰，手牌上限+1，每个城市最多放置一张，总共最多放置7张</t>
   </si>
   <si>
     <t>消耗300信仰，获得上一张打出的卡牌的副本</t>
   </si>
   <si>
+    <t>杀死目标城市1000人，补满全部手牌，危险值+10</t>
+  </si>
+  <si>
+    <t>去掉一张该城市的教条牌，随机杀死该城市（1-200）个市民，危险值+2</t>
+  </si>
+  <si>
+    <t>该城市可放置卡牌上限+1，每个城市最多一张，存在该教条的城市，每消耗1点信仰，转化该城市50名信徒</t>
+  </si>
+  <si>
     <t>建设机场</t>
   </si>
   <si>
@@ -614,25 +637,103 @@
     <t>ggj版本去掉了建设机场</t>
   </si>
   <si>
+    <t>红眼航线</t>
+  </si>
+  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费20信仰，转化目的地50的信徒</t>
   </si>
   <si>
+    <t>商务航线</t>
+  </si>
+  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费100信仰，目的地每有1w市民获得1信仰</t>
   </si>
   <si>
+    <t>旅游航线</t>
+  </si>
+  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
   </si>
   <si>
+    <t>物流航线</t>
+  </si>
+  <si>
     <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
   </si>
   <si>
+    <t>神圣航班</t>
+  </si>
+  <si>
     <t>花费500信仰，使与当前城市建立了航线的所有城市，转换总人口2%的信徒</t>
   </si>
   <si>
+    <t>死亡航班</t>
+  </si>
+  <si>
+    <t>选择一个与当前城市建立了航线的城市，摧毁目的地一个机场，杀死1000个市民，增加20危险值</t>
+  </si>
+  <si>
+    <t>特价机票</t>
+  </si>
+  <si>
+    <t>花费100信仰，立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
+  </si>
+  <si>
+    <t>热门城市</t>
+  </si>
+  <si>
     <t>每个与当前城市建立航线的城市，使该卡牌费用增加200信仰，使用后，与当前城市建立了航线的所有城市，航线运行间隔缩短10%</t>
   </si>
   <si>
+    <t>取消航线</t>
+  </si>
+  <si>
     <t>花费200信仰，消除一条航线，降低1的危险值</t>
+  </si>
+  <si>
+    <t>集会管制</t>
+  </si>
+  <si>
+    <t>危险值每有1，增加0.4%的发生概率，每30-45s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），每秒杀死1%信徒，每秒危险值降低0.2，持续10秒</t>
+  </si>
+  <si>
+    <t>危险值每有1，增加0.6%的发生概率，每40-55s判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，该城市信徒无法转化</t>
+  </si>
+  <si>
+    <t>危险值达到100时必然触发，自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），所有城市杀死10%信徒，清空全球所有航线，信仰值减少20%，之后危险值降低50</t>
+  </si>
+  <si>
+    <t>玩家每打出10张卡牌增加1%的发生几率，每消耗100信仰判定一次，判定成功自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌），在该教条存在的时候，危险值每增加1，理智值回复0.2</t>
+  </si>
+  <si>
+    <t>玩家每打出1张卡牌增加0.3%的发生几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀。持有该卡牌时抽卡强制只有2张，无视所有教条效果；该牌只能打出在有库苏恩的拥抱教条的城市，之后去掉库苏恩的拥抱</t>
+  </si>
+  <si>
+    <t>玩家每抽1次卡增加2%的发生几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件。持有该卡牌时每1s信仰值减少5，该牌只能打出在沙漠城市，打出后清空该城市的教条牌且无法再放置其他教条牌</t>
+  </si>
+  <si>
+    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次，判定成功直接生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场），放置有该卡牌的城市所有航线清空且不可设立新航线</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机落地减少目的地5%的信徒</t>
+  </si>
+  <si>
+    <t>强化审查</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每30-45s判定一次，判定成功下次抽卡时所有卡替换成强化审查，使用后所有航线运行间隔增加8%</t>
+  </si>
+  <si>
+    <t>每次抽牌有5%的几率抽到，每个被摧毁的城市增加10%的几率，手牌中持有该牌时每5s增加1的危险值,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>每次抽牌有1%的几率抽到，每次抽牌增加0.5%的几率，手牌中持有该牌时抽卡费用减半,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>每次抽牌有4%的几率抽到，拥有的每条航线增加1.2%的几率，手牌中持有该牌时所有航班起飞间隔缩短15%,遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+  </si>
+  <si>
+    <t>初始探索消耗50信仰，之后每次探索危险值增加已探索次数*4，信仰值增加已探索次数*100</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1016,6 +1117,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1145,7 +1283,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,34 +1295,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1269,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,31 +1424,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1845,19 +1995,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="75" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1890,7 +2040,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
@@ -1908,13 +2058,13 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -1936,7 +2086,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -1958,7 +2108,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -1980,7 +2130,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -2002,7 +2152,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -2024,7 +2174,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -2046,7 +2196,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -2068,7 +2218,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -2090,7 +2240,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -2112,7 +2262,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3">
@@ -2136,7 +2286,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -2158,7 +2308,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -2171,7 +2321,7 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2180,7 +2330,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>14</v>
       </c>
@@ -2201,8 +2351,8 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
+    <row r="16" ht="27" spans="1:8">
+      <c r="A16" s="5"/>
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -2215,21 +2365,23 @@
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
@@ -2237,21 +2389,21 @@
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>56</v>
+      <c r="F17" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -2263,17 +2415,17 @@
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -2285,17 +2437,17 @@
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -2307,17 +2459,17 @@
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="27" spans="1:8">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5"/>
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>52</v>
@@ -2329,461 +2481,431 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
+      <c r="A22" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>68</v>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="27" spans="1:8">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5"/>
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" ht="27" spans="1:8">
-      <c r="A24" s="2"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5"/>
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:8">
-      <c r="A25" s="2"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5"/>
       <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:8">
-      <c r="A26" s="2"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5"/>
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
+      <c r="C26" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" ht="27" spans="1:8">
+      <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" ht="27" spans="1:8">
-      <c r="A28" s="2"/>
       <c r="B28" s="3">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
+      <c r="H28" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:8">
+      <c r="A29" s="5"/>
       <c r="B29" s="3">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" ht="27" spans="1:8">
-      <c r="A30" s="2"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" ht="27" spans="1:8">
+      <c r="A31" s="5"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" ht="40.5" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" ht="54" spans="1:8">
+      <c r="A32" s="5"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" ht="40.5" spans="1:8">
-      <c r="A33" s="2"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G33" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" ht="40.5" spans="1:8">
-      <c r="A34" s="2"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" ht="40.5" spans="1:8">
-      <c r="A35" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:8">
+      <c r="A35" s="5"/>
       <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" ht="40.5" spans="1:8">
-      <c r="A36" s="2"/>
+    <row r="36" ht="27" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" ht="40.5" spans="1:8">
-      <c r="A37" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:8">
+      <c r="A37" s="5"/>
       <c r="B37" s="3">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" ht="40.5" spans="1:8">
-      <c r="A38" s="2"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" ht="40.5" spans="1:8">
-      <c r="A39" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:8">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" ht="27" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="3">
-        <v>40</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" ht="27" spans="1:8">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3">
-        <v>41</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" ht="27" spans="1:8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3">
-        <v>42</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" ht="27" spans="1:8">
-      <c r="A44" s="5" t="s">
+      <c r="C39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="5">
-        <v>43</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6" t="s">
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H39" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H36:H38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2796,14 +2918,14 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="1"/>
@@ -2815,7 +2937,7 @@
       <c r="B1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2829,7 +2951,7 @@
       <c r="B2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2843,7 +2965,7 @@
       <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2854,7 +2976,7 @@
       <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2868,7 +2990,7 @@
       <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2879,7 +3001,7 @@
       <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2893,7 +3015,7 @@
       <c r="B7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>300</v>
       </c>
     </row>
@@ -2904,7 +3026,7 @@
       <c r="B8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2918,7 +3040,7 @@
       <c r="B9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2929,7 +3051,7 @@
       <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2940,7 +3062,7 @@
       <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2951,7 +3073,7 @@
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2962,18 +3084,18 @@
       <c r="B13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
@@ -2982,7 +3104,7 @@
       <c r="B15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2993,7 +3115,7 @@
       <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3001,10 +3123,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="1">
         <v>18750</v>
       </c>
     </row>
@@ -3015,7 +3137,7 @@
       <c r="B18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3023,13 +3145,13 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="1">
         <v>31250</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
@@ -3038,7 +3160,7 @@
       <c r="B20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3046,10 +3168,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="1">
         <v>7500</v>
       </c>
     </row>
@@ -3060,7 +3182,7 @@
       <c r="B22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3068,10 +3190,10 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="1">
         <v>5000</v>
       </c>
     </row>
@@ -3082,7 +3204,7 @@
       <c r="B24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3090,10 +3212,10 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="1">
         <v>3750</v>
       </c>
     </row>
@@ -3104,7 +3226,7 @@
       <c r="B26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3112,10 +3234,10 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="1">
         <v>8750</v>
       </c>
     </row>
@@ -3126,22 +3248,21 @@
       <c r="B28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="12" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
@@ -3225,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3240,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3255,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3270,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3285,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3300,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3315,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3330,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3345,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3360,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3377,7 +3498,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3392,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3407,7 +3528,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3422,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3437,7 +3558,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3446,13 +3567,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3461,13 +3582,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3476,13 +3597,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3491,13 +3612,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -3506,33 +3627,33 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -3541,13 +3662,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -3556,13 +3677,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -3571,13 +3692,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -3586,13 +3707,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3601,13 +3722,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -3616,13 +3737,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3631,13 +3752,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -3646,13 +3767,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3661,30 +3782,30 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -3693,13 +3814,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -3708,13 +3829,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -3723,13 +3844,13 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -3738,13 +3859,13 @@
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -3753,13 +3874,13 @@
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -3768,13 +3889,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -3783,13 +3904,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -3798,30 +3919,30 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -3830,13 +3951,13 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -3845,30 +3966,30 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>43</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>127</v>
+      <c r="E43" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/卡牌效果一览表.xlsx
+++ b/策划案/卡牌效果一览表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="25395" windowHeight="10815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
-    <sheet name="基础数值管理" sheetId="2" r:id="rId2"/>
-    <sheet name="卡牌效果一览表_备份" sheetId="3" r:id="rId3"/>
+    <sheet name="全局buff表" sheetId="4" r:id="rId2"/>
+    <sheet name="基础数值管理" sheetId="2" r:id="rId3"/>
+    <sheet name="卡牌效果一览表_备份" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="274">
   <si>
     <t>流派</t>
   </si>
@@ -55,6 +56,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>卡牌描述</t>
+  </si>
+  <si>
     <t>高危流</t>
   </si>
   <si>
@@ -124,7 +128,7 @@
     <t>危险大于60时可使用</t>
   </si>
   <si>
-    <t>该城市每有10w非信徒，-0.3%理智,+5危险</t>
+    <t>该城市每有10w非信徒，+0.3%气泡,+5危险</t>
   </si>
   <si>
     <t>狂教徒的断罪</t>
@@ -133,7 +137,7 @@
     <t>危险大于70时可使用</t>
   </si>
   <si>
-    <t>该城市每有1w信徒，-0.4%理智,+5危险</t>
+    <t>该城市每有1w信徒，+0.4%气泡,+5危险</t>
   </si>
   <si>
     <t>伏行混沌的演说</t>
@@ -142,7 +146,7 @@
     <t>危险大于80时可使用</t>
   </si>
   <si>
-    <t>每个有教条的城市-0.5%理智,+5危险</t>
+    <t>每个有教条的城市+0.5%气泡,+5危险</t>
   </si>
   <si>
     <t>银匙门扉的开启</t>
@@ -151,7 +155,7 @@
     <t>危险大于90时可使用</t>
   </si>
   <si>
-    <t>消耗全部信仰，每1k信仰，-0.5%理智,+5危险</t>
+    <t>消耗全部信仰，每1k信仰，+0.5%气泡,+5危险</t>
   </si>
   <si>
     <t>资源流</t>
@@ -163,12 +167,18 @@
     <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最多的相同</t>
   </si>
   <si>
+    <t>你们施舍的时候，不可在你前面吹号，像那假冒为善的人，在会堂里和街道上所行的，故意要得人的荣耀。</t>
+  </si>
+  <si>
     <t>马太福音下卷</t>
   </si>
   <si>
     <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最少的相同</t>
   </si>
   <si>
+    <t>你们祷告的时候，不可像那假冒为善的人，爱站在会堂里和十字路口上祷告，故意叫人看见。</t>
+  </si>
+  <si>
     <t>丰饶盛典</t>
   </si>
   <si>
@@ -178,12 +188,18 @@
     <t>下次抽卡可以多抽一张，上限为8</t>
   </si>
   <si>
+    <t>信仰可使花开遍野，绿树成荫，溪水潺潺，福泽后人。</t>
+  </si>
+  <si>
     <t>道罗斯的凝视</t>
   </si>
   <si>
     <t>下次抽卡费用为1，+3危险</t>
   </si>
   <si>
+    <t>那无数面镜子不应直视，那碎裂的思绪不应记起。</t>
+  </si>
+  <si>
     <t>库苏恩的拥抱</t>
   </si>
   <si>
@@ -199,6 +215,9 @@
     <t>每个城市最多放置一张，总共最多放置7张</t>
   </si>
   <si>
+    <t>于迷雾中蔓延的生命之树，结下的却是带来死亡的迷幻之果。</t>
+  </si>
+  <si>
     <t>秘境回响</t>
   </si>
   <si>
@@ -208,24 +227,36 @@
     <t>获得上一张打出卡牌的副本</t>
   </si>
   <si>
+    <t>倾听你内在的声音。</t>
+  </si>
+  <si>
     <t>母神的眷恋</t>
   </si>
   <si>
     <t>减少1k市民，补满全部手牌，+10危险</t>
   </si>
   <si>
+    <t>赞美伟大的母，赞美我们最洁净的孕育者。</t>
+  </si>
+  <si>
     <t>克塔帕的愤怒</t>
   </si>
   <si>
     <t>摧毁目标城市，清空全部手牌</t>
   </si>
   <si>
+    <t>最初，没有人在意这场灾难，这不过是一场灾火，一次旱灾，一个物种的灭绝，一座城市的消失。直到这场灾难和每个人息息相关……</t>
+  </si>
+  <si>
     <t>修格斯增殖</t>
   </si>
   <si>
     <t>去掉一张该城市的教条牌，随机减少1-200市民，+2危险</t>
   </si>
   <si>
+    <t>Tekeli-li! Tekeli-li!</t>
+  </si>
+  <si>
     <t>珍珠的低语</t>
   </si>
   <si>
@@ -235,6 +266,9 @@
     <t>每个城市最多一张</t>
   </si>
   <si>
+    <t>予我所求，予你所愿，凡有所想，皆可实现。</t>
+  </si>
+  <si>
     <t>交通流</t>
   </si>
   <si>
@@ -256,7 +290,7 @@
     <t>米格的太空船</t>
   </si>
   <si>
-    <t>减少始发地10%市民，减少目的地10%市民，+15危险，+1理智</t>
+    <t>减少始发地10%市民，减少目的地10%市民，+15危险，-1气泡</t>
   </si>
   <si>
     <t>紧急征召</t>
@@ -277,7 +311,7 @@
     <t>-400信仰</t>
   </si>
   <si>
-    <t>所有城市随机向另一个城市转移1%-20%的市民，-1理智</t>
+    <t>所有城市随机向另一个城市转移1%-20%的市民，+1气泡</t>
   </si>
   <si>
     <t>垃圾牌</t>
@@ -325,7 +359,10 @@
     <t>每打出10张卡牌增加1%的几率，每消耗100信仰判定一次</t>
   </si>
   <si>
-    <t>该教条存在时，每+1危险，+0.2理智</t>
+    <t>该教条存在时，每+1危险，-0.2气泡</t>
+  </si>
+  <si>
+    <t>唤我于心，摒弃幻象，以我之名，拔除虚妄。</t>
   </si>
   <si>
     <t>黄金河流的神刀</t>
@@ -415,6 +452,90 @@
   </si>
   <si>
     <t>+(探索次数*4)危险，+(探索次数*100)信仰</t>
+  </si>
+  <si>
+    <t>buff名称</t>
+  </si>
+  <si>
+    <t>buff效果</t>
+  </si>
+  <si>
+    <t>buff描述</t>
+  </si>
+  <si>
+    <t>虔诚国度</t>
+  </si>
+  <si>
+    <t>初始信仰+1000</t>
+  </si>
+  <si>
+    <t>退行者的药剂</t>
+  </si>
+  <si>
+    <t>初始手牌有12张</t>
+  </si>
+  <si>
+    <t>暗影之拥</t>
+  </si>
+  <si>
+    <t>抽牌时卡牌数从3增加到4</t>
+  </si>
+  <si>
+    <t>哀嚎之地</t>
+  </si>
+  <si>
+    <t>以50危险开始游戏</t>
+  </si>
+  <si>
+    <t>圣光的恩泽</t>
+  </si>
+  <si>
+    <t>当圣城有1k信徒时生效，每秒获得5信仰</t>
+  </si>
+  <si>
+    <t>星之彩的坠落</t>
+  </si>
+  <si>
+    <t>如果本局累计死亡5k人，随机摧毁一个城市</t>
+  </si>
+  <si>
+    <t>真实之镜</t>
+  </si>
+  <si>
+    <t>所有气泡相关卡牌效果提升50%</t>
+  </si>
+  <si>
+    <t>向下取整</t>
+  </si>
+  <si>
+    <t>玛维斯造船厂</t>
+  </si>
+  <si>
+    <t>初始手牌由交通牌组成</t>
+  </si>
+  <si>
+    <t>至少获胜一次后解锁</t>
+  </si>
+  <si>
+    <t>吉诺贸易中心</t>
+  </si>
+  <si>
+    <t>初始手牌由资源牌组成</t>
+  </si>
+  <si>
+    <t>教皇的黑手指</t>
+  </si>
+  <si>
+    <t>初始手牌由危险牌组成</t>
+  </si>
+  <si>
+    <t>梦之境的呼唤</t>
+  </si>
+  <si>
+    <t>开局获得一张随机遗物牌，游戏无法暂停且最低速度为2倍速</t>
+  </si>
+  <si>
+    <t>至少通过收集遗物获胜一次后解锁</t>
   </si>
   <si>
     <t>变量名</t>
@@ -1099,7 +1220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1117,43 +1238,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1283,7 +1367,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,34 +1379,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,20 +1525,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1995,25 +2079,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="57.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,864 +2123,927 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" ht="40.5" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" ht="27" spans="1:8">
+      <c r="I15" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:9">
       <c r="A16" s="5"/>
       <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5"/>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5"/>
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5"/>
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>72</v>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5"/>
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>74</v>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>78</v>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5"/>
       <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" ht="27" spans="1:8">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" ht="27" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
       <c r="B29" s="3">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" ht="27" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" ht="27" spans="1:9">
       <c r="A30" s="5"/>
       <c r="B30" s="3">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" ht="27" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="54" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:9">
       <c r="A32" s="5"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" ht="40.5" spans="1:8">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" ht="40.5" spans="1:9">
       <c r="A33" s="5"/>
       <c r="B33" s="3">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" ht="40.5" spans="1:8">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" ht="40.5" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="3">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" ht="54" spans="1:9">
       <c r="A35" s="5"/>
       <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H35" s="5"/>
-    </row>
-    <row r="36" ht="27" spans="1:8">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" ht="27" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" ht="27" spans="1:9">
       <c r="A37" s="5"/>
       <c r="B37" s="3">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" ht="40.5" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" ht="40.5" spans="1:9">
       <c r="A38" s="5"/>
       <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B39" s="3">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H39" s="5"/>
+      <c r="I39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2913,6 +3061,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="14.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="40" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J38"/>
@@ -2935,10 +3261,10 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2949,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2963,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -2974,13 +3300,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2988,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -2999,13 +3325,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3013,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3024,13 +3350,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3038,10 +3364,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3049,10 +3375,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3060,10 +3386,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3071,10 +3397,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3082,13 +3408,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3102,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3113,10 +3439,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3124,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3135,10 +3461,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3146,7 +3472,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3158,10 +3484,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3169,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3180,10 +3506,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3191,7 +3517,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3202,10 +3528,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3213,7 +3539,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3224,10 +3550,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3235,7 +3561,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3246,10 +3572,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3260,48 +3586,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
@@ -3334,19 +3660,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3355,13 +3681,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3370,13 +3696,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3385,13 +3711,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3400,13 +3726,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3415,13 +3741,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3430,13 +3756,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3445,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3460,13 +3786,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3475,30 +3801,30 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3507,13 +3833,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3522,13 +3848,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3537,13 +3863,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3552,13 +3878,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3567,13 +3893,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3582,13 +3908,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3597,13 +3923,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3612,13 +3938,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -3627,33 +3953,33 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -3662,13 +3988,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -3677,13 +4003,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -3692,13 +4018,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -3707,13 +4033,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3722,13 +4048,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -3737,13 +4063,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3752,13 +4078,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -3767,13 +4093,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3782,30 +4108,30 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -3814,13 +4140,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -3829,13 +4155,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -3844,13 +4170,13 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -3859,13 +4185,13 @@
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -3874,13 +4200,13 @@
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -3889,13 +4215,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -3904,13 +4230,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -3919,30 +4245,30 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -3951,13 +4277,13 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -3966,30 +4292,30 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B43" s="2">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
